--- a/biology/Zoologie/Fromia_heffernani/Fromia_heffernani.xlsx
+++ b/biology/Zoologie/Fromia_heffernani/Fromia_heffernani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Etoile de mer marbrée
 L’Étoile de mer marbrée (Fromia heffernani) est une espèce d'étoile de mer de la famille des Goniasteridae. 
-Elle était classée jusqu'en 2017 parmi les Ophidiasteridae sous le genre obsolète Celerina[2]. 
+Elle était classée jusqu'en 2017 parmi les Ophidiasteridae sous le genre obsolète Celerina. 
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une étoile de mer régulière à 5 bras allongés rayonnant autour d'un disque central réduit (5 cm max), de couleur violacée pouvant tirer sur le rouge, et sur lequel la plaque madréporitique se détache d'une couleur plus vive, ainsi que l'anus couleur crème. Les bras sont en partie recouverts d'épaisses plaques calcaires beiges de forme polygonale, disposées de manière irrégulière, sauf à leur pointe[3].
-Outre la forme et le couleur, qui peuvent être variables, Fromia heffernani se distingue de Fromia monilis par la présence d'une seule rangée de courts piquants bifides de part et d'autre des sillons ambulacraires d'où émergent les podia[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une étoile de mer régulière à 5 bras allongés rayonnant autour d'un disque central réduit (5 cm max), de couleur violacée pouvant tirer sur le rouge, et sur lequel la plaque madréporitique se détache d'une couleur plus vive, ainsi que l'anus couleur crème. Les bras sont en partie recouverts d'épaisses plaques calcaires beiges de forme polygonale, disposées de manière irrégulière, sauf à leur pointe.
+Outre la forme et le couleur, qui peuvent être variables, Fromia heffernani se distingue de Fromia monilis par la présence d'une seule rangée de courts piquants bifides de part et d'autre des sillons ambulacraires d'où émergent les podia,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’étoile de mer marbrée est présente dans les eaux tropicales de l'Indo-Pacifique[3], principalement dans le Pacifique ouest[5], de la Malaisie au Vanuatu, avec peut-être les Maldives, entre la surface et 40 m de profondeur.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’étoile de mer marbrée est présente dans les eaux tropicales de l'Indo-Pacifique, principalement dans le Pacifique ouest, de la Malaisie au Vanuatu, avec peut-être les Maldives, entre la surface et 40 m de profondeur.
 </t>
         </is>
       </c>
